--- a/Blueprint_FirstThreeWeeks/BlueprintFullTestReview(AutoRecovered).xlsx
+++ b/Blueprint_FirstThreeWeeks/BlueprintFullTestReview(AutoRecovered).xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melto\Documents\MCAT\Blueprint_FirstThreeWeeks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECF07AC-4E46-414B-B38D-40FC140ADD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01307213-E7A0-41EC-BB1C-C361535A12AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{865720B1-D8A7-4E41-851D-056BAB6FE78C}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{865720B1-D8A7-4E41-851D-056BAB6FE78C}"/>
   </bookViews>
   <sheets>
     <sheet name="ChemPhys" sheetId="1" r:id="rId1"/>
     <sheet name="CARS" sheetId="2" r:id="rId2"/>
     <sheet name="BB" sheetId="3" r:id="rId3"/>
+    <sheet name="PS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="104">
   <si>
     <t>Question</t>
   </si>
@@ -319,6 +319,27 @@
   </si>
   <si>
     <t>read the question carefully !!!! So ez just glucose cuz it moves around the body</t>
+  </si>
+  <si>
+    <t>Sum of the parts, not just in one area</t>
+  </si>
+  <si>
+    <t>Read the graph more carefully</t>
+  </si>
+  <si>
+    <t>Archaea do not have nuclei</t>
+  </si>
+  <si>
+    <t>Chemistry: Bronsted acids and bases</t>
+  </si>
+  <si>
+    <t>Side chains on amino acids can help buffer the blood</t>
+  </si>
+  <si>
+    <t>Biology: Homologous vs Analogous structures</t>
+  </si>
+  <si>
+    <t>Homologous means evolved to have different functions and analogous means same function but evolved independently.</t>
   </si>
 </sst>
 </file>
@@ -810,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC950E7-EA61-4013-B7F8-036CC8C8D49D}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1617,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078A4B2C-C183-4EFC-B4D7-4D00994F4FC5}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1930,7 +1951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>37</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>38</v>
       </c>
@@ -1967,7 +1988,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>39</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>40</v>
       </c>
@@ -2001,7 +2022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>43</v>
       </c>
@@ -2018,7 +2039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>44</v>
       </c>
@@ -2035,7 +2056,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>46</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>48</v>
       </c>
@@ -2072,47 +2093,83 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>55</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>58</v>
       </c>
@@ -2122,16 +2179,54 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2934C650-5DCD-46DA-A684-7BA5F2715DF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>